--- a/Masterarbeit diagramme.xlsx
+++ b/Masterarbeit diagramme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminwuthe/git/MasterThesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65374B9-29BC-BB46-A025-2A16EA3B5DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381326C7-0B4C-F84D-9890-BB895AD34430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1540" windowWidth="28040" windowHeight="17360" xr2:uid="{159BA055-7135-2B40-841E-6AFC689E1288}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tomaten</t>
   </si>
@@ -83,7 +83,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">I - </t>
+      <t xml:space="preserve">t - </t>
     </r>
     <r>
       <rPr>
@@ -93,7 +93,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Items</t>
+      <t>Transaktion</t>
     </r>
   </si>
   <si>
@@ -106,7 +106,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">t - </t>
+      <t xml:space="preserve">I - </t>
     </r>
     <r>
       <rPr>
@@ -116,7 +116,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Transaktion</t>
+      <t>Item Set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Item</t>
     </r>
   </si>
 </sst>
@@ -149,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -356,32 +379,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,6 +463,209 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10690</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rahmen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47944D03-8F32-794C-9081-8146FCF59676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2713021" y="1140276"/>
+          <a:ext cx="640080" cy="154718"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 452"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6366</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>646446</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rahmen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F6D7AB-16FD-8447-989E-BEDDF8FB8F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3431228" y="1140745"/>
+          <a:ext cx="640080" cy="154718"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 452"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640081</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rahmen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46674EF2-6C8A-9745-8C90-422537B6D6F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4147394" y="1140746"/>
+          <a:ext cx="640080" cy="154718"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 452"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,181 +965,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A74F6F0-6907-7848-AE3C-F47A83574462}">
-  <dimension ref="D5:J17"/>
+  <dimension ref="D5:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:K17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="161" zoomScaleNormal="399" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="5" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="0.5" customWidth="1"/>
+    <col min="6" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="4:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="4:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="19" t="s">
+    <row r="7" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="5"/>
+      <c r="K7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:10" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="19"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="4:11" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="15"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
+    <row r="9" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21">
         <v>0</v>
       </c>
-      <c r="F9" s="16">
+      <c r="G9" s="21">
         <v>0</v>
       </c>
-      <c r="G9" s="17">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5">
+    <row r="10" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="23">
         <v>2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13"/>
+      <c r="F10" s="21">
         <v>0</v>
       </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22">
         <v>0</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="5"/>
+      <c r="K10" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="5">
+    <row r="11" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="23">
         <v>3</v>
       </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="E11" s="13"/>
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
         <v>0</v>
       </c>
-      <c r="G11" s="17">
+      <c r="H11" s="22">
         <v>0</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="5">
+    <row r="12" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="23">
         <v>4</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13"/>
+      <c r="F12" s="21">
         <v>0</v>
       </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="J12" s="18" t="s">
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="5">
+    <row r="13" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="23">
         <v>5</v>
       </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="E13" s="13"/>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
         <v>0</v>
       </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="5">
+    <row r="14" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="23">
         <v>6</v>
       </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17">
+      <c r="E14" s="13"/>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22">
         <v>0</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="K14" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="5">
+    <row r="15" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="23">
         <v>7</v>
       </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="4:10" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+    <row r="16" spans="4:11" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>